--- a/ADMON_DEL_PROYECTO/BITACORAS/2019/MAY/Mayo.xlsx
+++ b/ADMON_DEL_PROYECTO/BITACORAS/2019/MAY/Mayo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>Grupo:</t>
   </si>
@@ -290,12 +290,6 @@
     <t>Desarrollar una plataforma web para la prevención y la monitorización de la discriminación en el estado de Veracruz, que permita a las instituciones registradas identificar y atender los casos de discriminación detectados</t>
   </si>
   <si>
-    <t>Plataforma de prevención y monitorización de discriminación del estado de Veracruz</t>
-  </si>
-  <si>
-    <t>Plataforma de prevención y monitorización de discriminación del estado de Veracruz.</t>
-  </si>
-  <si>
     <t>Chávez Martínez Christian Paul</t>
   </si>
   <si>
@@ -381,6 +375,9 @@
   </si>
   <si>
     <t>Extracción de noticias por periódico</t>
+  </si>
+  <si>
+    <t>Plataforma para la Prevención y Monitorización de casos de Discriminación en el Estado de Veracruz</t>
   </si>
 </sst>
 </file>
@@ -838,6 +835,8 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -883,6 +882,69 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -952,71 +1014,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1622,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:H7"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,211 +1635,211 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
+      <c r="D6" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="D8" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
+      <c r="D9" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="41">
         <v>1</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+      <c r="D11" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="24"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" s="25"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" s="27"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <v>2</v>
       </c>
-      <c r="D16" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="D16" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="5">
         <v>3</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="5">
         <v>4</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="5">
         <v>5</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="5">
         <v>6</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1873,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="57" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E14"/>
+    <sheetView showGridLines="0" topLeftCell="B14" zoomScaleNormal="100" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="57" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1890,90 +1887,90 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="57"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="80"/>
     </row>
     <row r="3" spans="2:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="60"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="83"/>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="63"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="86"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="O6" s="13" t="s">
         <v>31</v>
       </c>
@@ -1981,78 +1978,78 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="29"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="74">
+      <c r="T6" s="97">
         <v>43582</v>
       </c>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="98"/>
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="73" t="s">
+      <c r="C7" s="89"/>
+      <c r="D7" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+      <c r="S7" s="96"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J8" s="31"/>
     </row>
     <row r="9" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="64" t="s">
+      <c r="D9" s="90"/>
+      <c r="E9" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="71"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="94"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="65"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="54"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="77"/>
       <c r="G10" s="32">
         <v>1</v>
       </c>
@@ -2100,15 +2097,15 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="94">
+      <c r="B11" s="55">
         <v>1</v>
       </c>
-      <c r="C11" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="76" t="s">
-        <v>80</v>
+      <c r="C11" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="65"/>
+      <c r="E11" s="62" t="s">
+        <v>78</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>37</v>
@@ -2130,10 +2127,10 @@
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="94"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="77"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="19" t="s">
         <v>36</v>
       </c>
@@ -2154,22 +2151,22 @@
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="94">
+      <c r="B13" s="55">
         <v>2</v>
       </c>
-      <c r="C13" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="92" t="s">
-        <v>80</v>
+      <c r="C13" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="65"/>
+      <c r="E13" s="72" t="s">
+        <v>78</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="37"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="98"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -2184,10 +2181,10 @@
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="94"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="93"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="19" t="s">
         <v>36</v>
       </c>
@@ -2208,15 +2205,15 @@
       <c r="U14" s="4"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="94">
+      <c r="B15" s="55">
         <v>3</v>
       </c>
-      <c r="C15" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="95" t="s">
-        <v>79</v>
+      <c r="C15" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="65"/>
+      <c r="E15" s="74" t="s">
+        <v>77</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>37</v>
@@ -2238,10 +2235,10 @@
       <c r="U15" s="4"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="94"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="96"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="19" t="s">
         <v>36</v>
       </c>
@@ -2262,15 +2259,15 @@
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="94">
+      <c r="B17" s="55">
         <v>4</v>
       </c>
-      <c r="C17" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="92" t="s">
-        <v>80</v>
+      <c r="C17" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="72" t="s">
+        <v>78</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>37</v>
@@ -2292,10 +2289,10 @@
       <c r="U17" s="4"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="94"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="93"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="73"/>
       <c r="F18" s="19" t="s">
         <v>36</v>
       </c>
@@ -2316,12 +2313,12 @@
       <c r="U18" s="4"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="94">
+      <c r="B19" s="55">
         <v>5</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="82"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="60"/>
       <c r="F19" s="19" t="s">
         <v>37</v>
       </c>
@@ -2342,10 +2339,10 @@
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="94"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="83"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="61"/>
       <c r="F20" s="19" t="s">
         <v>36</v>
       </c>
@@ -2366,12 +2363,12 @@
       <c r="U20" s="4"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="94">
+      <c r="B21" s="55">
         <v>6</v>
       </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="82"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="60"/>
       <c r="F21" s="19" t="s">
         <v>37</v>
       </c>
@@ -2392,10 +2389,10 @@
       <c r="U21" s="4"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="94"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="83"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="61"/>
       <c r="F22" s="19" t="s">
         <v>36</v>
       </c>
@@ -2416,12 +2413,12 @@
       <c r="U22" s="4"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="94">
+      <c r="B23" s="55">
         <v>7</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="82"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="60"/>
       <c r="F23" s="19" t="s">
         <v>37</v>
       </c>
@@ -2442,10 +2439,10 @@
       <c r="U23" s="4"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="94"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="83"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="61"/>
       <c r="F24" s="4" t="s">
         <v>36</v>
       </c>
@@ -2466,12 +2463,12 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="94">
+      <c r="B25" s="55">
         <v>8</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="82"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="60"/>
       <c r="F25" s="4" t="s">
         <v>37</v>
       </c>
@@ -2492,10 +2489,10 @@
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="94"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="83"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="61"/>
       <c r="F26" s="4" t="s">
         <v>36</v>
       </c>
@@ -2516,12 +2513,12 @@
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="94">
+      <c r="B27" s="55">
         <v>9</v>
       </c>
-      <c r="C27" s="84"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="82"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="60"/>
       <c r="F27" s="4" t="s">
         <v>37</v>
       </c>
@@ -2542,10 +2539,10 @@
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="94"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="83"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="61"/>
       <c r="F28" s="4" t="s">
         <v>36</v>
       </c>
@@ -2566,12 +2563,12 @@
       <c r="U28" s="4"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="94">
+      <c r="B29" s="55">
         <v>10</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="82"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="60"/>
       <c r="F29" s="4" t="s">
         <v>37</v>
       </c>
@@ -2592,10 +2589,10 @@
       <c r="U29" s="4"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="94"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="83"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="61"/>
       <c r="F30" s="4" t="s">
         <v>36</v>
       </c>
@@ -2616,12 +2613,12 @@
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="94">
+      <c r="B31" s="55">
         <v>12</v>
       </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="82"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="60"/>
       <c r="F31" s="4" t="s">
         <v>37</v>
       </c>
@@ -2642,10 +2639,10 @@
       <c r="U31" s="19"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="94"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="83"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="61"/>
       <c r="F32" s="4" t="s">
         <v>36</v>
       </c>
@@ -2666,12 +2663,12 @@
       <c r="U32" s="4"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="94">
+      <c r="B33" s="55">
         <v>13</v>
       </c>
-      <c r="C33" s="84"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="82"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="60"/>
       <c r="F33" s="4" t="s">
         <v>37</v>
       </c>
@@ -2692,10 +2689,10 @@
       <c r="U33" s="4"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="94"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="83"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="61"/>
       <c r="F34" s="4" t="s">
         <v>36</v>
       </c>
@@ -2717,11 +2714,34 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B2:U4"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="G9:U9"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="D7:S7"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="C33:D34"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="B33:B34"/>
@@ -2736,34 +2756,11 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="C31:D32"/>
     <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:U4"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="G9:U9"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="D7:S7"/>
-    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" orientation="portrait" r:id="rId1"/>
@@ -2775,7 +2772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K110"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2794,40 +2791,40 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="60"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="83"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="63"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="86"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
@@ -2875,10 +2872,10 @@
         <v>42</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>44</v>
@@ -2899,13 +2896,13 @@
         <v>42</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I10" s="14"/>
     </row>
@@ -2923,13 +2920,13 @@
         <v>42</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I11" s="14"/>
     </row>
@@ -2947,7 +2944,7 @@
         <v>42</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="20" t="s">
@@ -2969,7 +2966,7 @@
         <v>42</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="18" t="s">
@@ -2991,10 +2988,10 @@
         <v>42</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H14" s="20" t="s">
         <v>44</v>
@@ -3015,10 +3012,10 @@
         <v>42</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>44</v>
@@ -3039,10 +3036,10 @@
         <v>42</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>44</v>
@@ -3063,13 +3060,13 @@
         <v>41</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I17" s="14"/>
     </row>
@@ -3087,13 +3084,13 @@
         <v>41</v>
       </c>
       <c r="F18" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>76</v>
       </c>
       <c r="I18" s="14"/>
     </row>
